--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Gérer l'importation de carte dans nos sauvegarder</t>
+  </si>
+  <si>
+    <t>Reste :</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -549,6 +552,7 @@
     <xf numFmtId="20" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1356,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="8">
@@ -1663,7 +1667,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>39</v>
       </c>
@@ -1689,8 +1693,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="8">
@@ -1715,8 +1719,8 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="8">
@@ -1741,7 +1745,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1763,7 @@
       <c r="M36" s="26"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>20</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>48</v>
       </c>
@@ -1805,7 +1809,6 @@
       <c r="H38" s="10"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="32"/>
       <c r="N38" s="13">
@@ -1813,7 +1816,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>41</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>42</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>50</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="J41" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K41" s="20"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="20"/>
       <c r="M41" s="33"/>
       <c r="N41" s="13">
@@ -1893,7 +1896,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>44</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>43</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>2</v>
       </c>
@@ -1962,8 +1965,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="26"/>
       <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44" s="59"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>7</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>46</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>0.15277777777777782</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>0.2986111111111111</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>6</v>
       </c>
@@ -2250,8 +2254,11 @@
         <f>SUM(C53:M53)</f>
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="13">
         <f t="shared" ref="B54:M54" si="9">SUM(B2:B53)</f>
@@ -2302,8 +2309,12 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="N54" s="17"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="13">
+        <f>SUM(N56-N55)</f>
+        <v>0.15277777777777768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2322,6 +2333,11 @@
         <v>3.5138888888888888</v>
       </c>
     </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N56" s="59">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -973,7 +973,7 @@
   <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Previsionnel" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -686,9 +686,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" activeCellId="2" sqref="S36:S37 I25 P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R34" activeCellId="1" sqref="J29 R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,10 +3772,12 @@
       </c>
       <c r="B4" s="57">
         <f t="shared" ref="B4:B54" si="1">SUM(C4:M4)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="19">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -3790,7 +3789,7 @@
       <c r="M4" s="45"/>
       <c r="N4" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>51</v>
@@ -3807,10 +3806,12 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
@@ -3822,7 +3823,7 @@
       <c r="M5" s="45"/>
       <c r="N5" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="P5" s="29" t="s">
         <v>52</v>
@@ -3839,10 +3840,12 @@
       </c>
       <c r="B6" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -3854,7 +3857,7 @@
       <c r="M6" s="45"/>
       <c r="N6" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3863,10 +3866,12 @@
       </c>
       <c r="B7" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
@@ -3878,7 +3883,7 @@
       <c r="M7" s="45"/>
       <c r="N7" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -3905,10 +3910,12 @@
       </c>
       <c r="B9" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3920,7 +3927,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3929,10 +3936,12 @@
       </c>
       <c r="B10" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3944,7 +3953,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3953,10 +3962,12 @@
       </c>
       <c r="B11" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3968,7 +3979,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3977,10 +3988,12 @@
       </c>
       <c r="B12" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3992,7 +4005,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4001,10 +4014,12 @@
       </c>
       <c r="B13" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4016,7 +4031,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4025,10 +4040,12 @@
       </c>
       <c r="B14" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="19">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4040,7 +4057,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -4080,7 +4097,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
-      <c r="N16" s="87">
+      <c r="N16" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4104,7 +4121,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="N17" s="87">
+      <c r="N17" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4128,7 +4145,7 @@
       <c r="K18" s="43"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="87">
+      <c r="N18" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4152,7 +4169,7 @@
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
-      <c r="N19" s="87">
+      <c r="N19" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4176,7 +4193,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="87">
+      <c r="N20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4200,7 +4217,7 @@
       <c r="K21" s="43"/>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="87">
+      <c r="N21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4583,10 +4600,12 @@
       </c>
       <c r="B38" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -4598,7 +4617,7 @@
       <c r="M38" s="45"/>
       <c r="N38" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -4688,7 +4707,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="88"/>
+      <c r="J42" s="87"/>
       <c r="K42" s="5"/>
       <c r="L42" s="12"/>
       <c r="M42" s="46"/>
@@ -4712,7 +4731,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="88"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="46"/>
@@ -4737,7 +4756,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="88"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="12"/>
       <c r="M44" s="46"/>
       <c r="N44" s="50">
@@ -4822,12 +4841,14 @@
       </c>
       <c r="B48" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C48" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D48" s="13"/>
+      <c r="D48" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -4839,7 +4860,7 @@
       <c r="M48" s="45"/>
       <c r="N48" s="50">
         <f t="shared" si="4"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -4874,12 +4895,14 @@
       </c>
       <c r="B50" s="57">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C50" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -4891,7 +4914,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="50">
         <f t="shared" si="4"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -4900,12 +4923,14 @@
       </c>
       <c r="B51" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C51" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4917,7 +4942,7 @@
       <c r="M51" s="42"/>
       <c r="N51" s="50">
         <f t="shared" si="4"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -4950,10 +4975,12 @@
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4965,7 +4992,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="50">
         <f>SUM(C53:M53)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4999,7 +5026,7 @@
       <c r="A55" s="10"/>
       <c r="B55" s="62">
         <f t="shared" ref="B55:M55" si="5">SUM(B2:B54)</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="C55" s="63">
         <f t="shared" si="5"/>
@@ -5007,7 +5034,7 @@
       </c>
       <c r="D55" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E55" s="63">
         <f t="shared" si="5"/>
@@ -5048,7 +5075,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="65">
         <f>SUM(N57-N56)</f>
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5073,7 +5100,7 @@
       </c>
       <c r="N56" s="52">
         <f>SUM(N3:N55)</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Previsionnel" sheetId="1" r:id="rId1"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P22" activeCellId="2" sqref="S36:S37 I25 P22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R34" activeCellId="1" sqref="J29 R34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Previsionnel" sheetId="1" r:id="rId1"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,11 +4084,13 @@
       </c>
       <c r="B16" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F16" s="43"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -4099,7 +4101,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -4108,11 +4110,13 @@
       </c>
       <c r="B17" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="42"/>
@@ -4123,7 +4127,7 @@
       <c r="M17" s="42"/>
       <c r="N17" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4132,11 +4136,13 @@
       </c>
       <c r="B18" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="41"/>
@@ -4147,7 +4153,7 @@
       <c r="M18" s="43"/>
       <c r="N18" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -4156,11 +4162,13 @@
       </c>
       <c r="B19" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
+      <c r="E19" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="41"/>
@@ -4171,7 +4179,7 @@
       <c r="M19" s="43"/>
       <c r="N19" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4180,11 +4188,13 @@
       </c>
       <c r="B20" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="17">
+        <v>6.25E-2</v>
+      </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="41"/>
@@ -4195,7 +4205,7 @@
       <c r="M20" s="43"/>
       <c r="N20" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -4204,11 +4214,13 @@
       </c>
       <c r="B21" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="41"/>
@@ -4219,7 +4231,7 @@
       <c r="M21" s="43"/>
       <c r="N21" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -4246,11 +4258,13 @@
       </c>
       <c r="B23" s="57">
         <f t="shared" ref="B23" si="2">SUM(C23:M23)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
@@ -4261,7 +4275,7 @@
       <c r="M23" s="43"/>
       <c r="N23" s="50">
         <f t="shared" ref="N23:N36" si="3">SUM(C23:M23)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4270,11 +4284,13 @@
       </c>
       <c r="B24" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="21">
+        <v>6.9444444444444434E-2</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
@@ -4285,7 +4301,7 @@
       <c r="M24" s="43"/>
       <c r="N24" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4294,11 +4310,13 @@
       </c>
       <c r="B25" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
@@ -4309,7 +4327,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4895,7 +4913,7 @@
       </c>
       <c r="B50" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C50" s="17">
         <v>2.0833333333333332E-2</v>
@@ -4903,7 +4921,9 @@
       <c r="D50" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -4914,7 +4934,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="50">
         <f t="shared" si="4"/>
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -4975,13 +4995,15 @@
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -4992,7 +5014,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="50">
         <f>SUM(C53:M53)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5026,7 +5048,7 @@
       <c r="A55" s="10"/>
       <c r="B55" s="62">
         <f t="shared" ref="B55:M55" si="5">SUM(B2:B54)</f>
-        <v>0.66666666666666652</v>
+        <v>1</v>
       </c>
       <c r="C55" s="63">
         <f t="shared" si="5"/>
@@ -5038,7 +5060,7 @@
       </c>
       <c r="E55" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F55" s="63">
         <f t="shared" si="5"/>
@@ -5075,7 +5097,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="65">
         <f>SUM(N57-N56)</f>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5100,7 +5122,7 @@
       </c>
       <c r="N56" s="52">
         <f>SUM(N3:N55)</f>
-        <v>0.66666666666666652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2346,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="20">
+      <c r="I31" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J31" s="4"/>
@@ -3660,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,14 +4284,16 @@
       </c>
       <c r="B24" s="57">
         <f t="shared" si="1"/>
-        <v>6.9444444444444434E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="7"/>
       <c r="E24" s="21">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="19">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
       <c r="I24" s="4"/>
@@ -4301,7 +4303,7 @@
       <c r="M24" s="43"/>
       <c r="N24" s="50">
         <f t="shared" si="3"/>
-        <v>6.9444444444444434E-2</v>
+        <v>0.12499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4310,14 +4312,16 @@
       </c>
       <c r="B25" s="57">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="7"/>
       <c r="E25" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
       <c r="I25" s="4"/>
@@ -4327,7 +4331,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="50">
         <f t="shared" si="3"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4336,12 +4340,14 @@
       </c>
       <c r="B26" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="19">
+        <v>0.125</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="7"/>
       <c r="I26" s="4"/>
@@ -4351,7 +4357,7 @@
       <c r="M26" s="43"/>
       <c r="N26" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4649,7 +4655,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
@@ -4716,12 +4722,14 @@
       </c>
       <c r="B42" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
       <c r="I42" s="12"/>
@@ -4731,7 +4739,7 @@
       <c r="M42" s="46"/>
       <c r="N42" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -4745,7 +4753,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
       <c r="I43" s="12"/>
@@ -4769,7 +4777,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
       <c r="I44" s="12"/>
@@ -4913,7 +4921,7 @@
       </c>
       <c r="B50" s="57">
         <f t="shared" si="1"/>
-        <v>5.5555555555555552E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="C50" s="17">
         <v>2.0833333333333332E-2</v>
@@ -4924,7 +4932,9 @@
       <c r="E50" s="17">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="19">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -4934,7 +4944,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="50">
         <f t="shared" si="4"/>
-        <v>5.5555555555555552E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -4995,7 +5005,7 @@
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="19">
@@ -5004,7 +5014,9 @@
       <c r="E53" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -5014,7 +5026,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="50">
         <f>SUM(C53:M53)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5023,12 +5035,14 @@
       </c>
       <c r="B54" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
+      <c r="F54" s="58">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
       <c r="I54" s="43"/>
@@ -5038,7 +5052,7 @@
       <c r="M54" s="43"/>
       <c r="N54" s="50">
         <f>SUM(C54:M54)</f>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="O54" t="s">
         <v>49</v>
@@ -5048,7 +5062,7 @@
       <c r="A55" s="10"/>
       <c r="B55" s="62">
         <f t="shared" ref="B55:M55" si="5">SUM(B2:B54)</f>
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C55" s="63">
         <f t="shared" si="5"/>
@@ -5064,7 +5078,7 @@
       </c>
       <c r="F55" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G55" s="63">
         <f t="shared" si="5"/>
@@ -5097,7 +5111,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="65">
         <f>SUM(N57-N56)</f>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5122,7 +5136,7 @@
       </c>
       <c r="N56" s="52">
         <f>SUM(N3:N55)</f>
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,13 +4366,15 @@
       </c>
       <c r="B27" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="21">
+        <v>0.125</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -4381,7 +4383,7 @@
       <c r="M27" s="43"/>
       <c r="N27" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4390,13 +4392,15 @@
       </c>
       <c r="B28" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4405,7 +4409,7 @@
       <c r="M28" s="43"/>
       <c r="N28" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4650,13 +4654,15 @@
       </c>
       <c r="B39" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="21">
+        <v>6.9444444444444434E-2</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -4665,7 +4671,7 @@
       <c r="M39" s="45"/>
       <c r="N39" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -4921,7 +4927,7 @@
       </c>
       <c r="B50" s="57">
         <f t="shared" si="1"/>
-        <v>6.9444444444444448E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="C50" s="17">
         <v>2.0833333333333332E-2</v>
@@ -4935,7 +4941,9 @@
       <c r="F50" s="19">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -4944,7 +4952,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="50">
         <f t="shared" si="4"/>
-        <v>6.9444444444444448E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -5005,7 +5013,7 @@
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="19">
@@ -5017,7 +5025,9 @@
       <c r="F53" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -5026,7 +5036,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="50">
         <f>SUM(C53:M53)</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5062,7 +5072,7 @@
       <c r="A55" s="10"/>
       <c r="B55" s="62">
         <f t="shared" ref="B55:M55" si="5">SUM(B2:B54)</f>
-        <v>1.333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="C55" s="63">
         <f t="shared" si="5"/>
@@ -5082,7 +5092,7 @@
       </c>
       <c r="G55" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H55" s="63">
         <f t="shared" si="5"/>
@@ -5111,7 +5121,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="65">
         <f>SUM(N57-N56)</f>
-        <v>2.3333333333333335</v>
+        <v>1.9999999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5136,7 +5146,7 @@
       </c>
       <c r="N56" s="52">
         <f>SUM(N3:N55)</f>
-        <v>1.333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Mode 1, choisir une entrer et sortie et trouver la solution la plus rapide</t>
+  </si>
+  <si>
+    <t>Afficher chaque trace que l'utilisateur choisi</t>
+  </si>
+  <si>
+    <t>Modifier la génération et ajouter un dead end a l'intérieur du labyrinthe</t>
+  </si>
+  <si>
+    <t>J'avais sous estimmer cette fonctionalité lors de la plannifcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de cette tache pour améliorer l'algorithme de recherche et le rendre plus pertinent </t>
   </si>
 </sst>
 </file>
@@ -970,7 +982,7 @@
   <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G40" sqref="G40:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,16 +3670,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3754,7 +3767,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="45"/>
       <c r="N3" s="50">
-        <f t="shared" ref="N3:N44" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N46" si="0">SUM(C3:M3)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="P3" s="27" t="s">
@@ -3771,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="57">
-        <f t="shared" ref="B4:B54" si="1">SUM(C4:M4)</f>
+        <f t="shared" ref="B4:B56" si="1">SUM(C4:M4)</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C4" s="3"/>
@@ -4104,7 +4117,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
@@ -4156,7 +4169,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>28</v>
       </c>
@@ -4182,7 +4195,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>60</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
@@ -4234,7 +4247,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
@@ -4252,7 +4265,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="49"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
@@ -4274,11 +4287,11 @@
       <c r="L23" s="4"/>
       <c r="M23" s="43"/>
       <c r="N23" s="50">
-        <f t="shared" ref="N23:N36" si="3">SUM(C23:M23)</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N23:N38" si="3">SUM(C23:M23)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
@@ -4306,7 +4319,7 @@
         <v>0.12499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -4334,7 +4347,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>61</v>
       </c>
@@ -4360,7 +4373,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>62</v>
       </c>
@@ -4386,7 +4399,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>63</v>
       </c>
@@ -4412,20 +4425,22 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4433,23 +4448,25 @@
       <c r="M29" s="43"/>
       <c r="N29" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B30" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="7"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -4457,23 +4474,28 @@
       <c r="M30" s="43"/>
       <c r="N30" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>40</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="B31" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="7"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="20">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -4481,23 +4503,28 @@
       <c r="M31" s="43"/>
       <c r="N31" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>48</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="B32" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -4505,12 +4532,12 @@
       <c r="M32" s="43"/>
       <c r="N32" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33" s="57">
         <f t="shared" si="1"/>
@@ -4521,7 +4548,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -4534,7 +4561,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B34" s="57">
         <f t="shared" si="1"/>
@@ -4545,7 +4572,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -4557,8 +4584,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>31</v>
+      <c r="A35" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B35" s="57">
         <f t="shared" si="1"/>
@@ -4568,7 +4595,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="7"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4581,8 +4608,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
-        <v>32</v>
+      <c r="A36" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B36" s="57">
         <f t="shared" si="1"/>
@@ -4604,283 +4631,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="49"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="57">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="50">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="57">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="21">
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="50">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444434E-2</v>
-      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B40" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="46"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B41" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="21">
+        <v>6.9444444444444434E-2</v>
+      </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="46"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="45"/>
       <c r="N41" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B42" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="5"/>
+      <c r="H42" s="20">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="46"/>
       <c r="N42" s="50">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>39</v>
+      <c r="A43" s="53" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="20">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="I43" s="12"/>
-      <c r="J43" s="87"/>
+      <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="46"/>
       <c r="N43" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>38</v>
+      <c r="A44" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="B44" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="5"/>
       <c r="L44" s="12"/>
       <c r="M44" s="46"/>
       <c r="N44" s="50">
         <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="57">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="49"/>
-      <c r="Q45" s="25"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>8</v>
+      <c r="A46" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B46" s="57">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C46" s="17">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D46" s="13"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="45"/>
+      <c r="H46" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="46"/>
       <c r="N46" s="50">
-        <f t="shared" ref="N46:N52" si="4">SUM(C46:M46)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="57">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C47" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="50">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="49"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="57">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C48" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D48" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D48" s="13"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -4891,13 +4918,13 @@
       <c r="L48" s="5"/>
       <c r="M48" s="45"/>
       <c r="N48" s="50">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <f t="shared" ref="N48:N54" si="4">SUM(C48:M48)</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B49" s="57">
         <f t="shared" si="1"/>
@@ -4923,234 +4950,292 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B50" s="57">
         <f t="shared" si="1"/>
-        <v>8.3333333333333343E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C50" s="17">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D50" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E50" s="17">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F50" s="19">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G50" s="17">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="50">
         <f t="shared" si="4"/>
-        <v>8.3333333333333343E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
-        <v>3</v>
+      <c r="A51" s="53" t="s">
+        <v>10</v>
       </c>
       <c r="B51" s="57">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C51" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D51" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="42"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="50">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
-        <v>4</v>
+      <c r="A52" s="53" t="s">
+        <v>41</v>
       </c>
       <c r="B52" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="43"/>
+        <v>9.7222222222222238E-2</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D52" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F52" s="19">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
       <c r="N52" s="50">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.7222222222222238E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C53" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D53" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E53" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F53" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G53" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="M53" s="42"/>
       <c r="N53" s="50">
-        <f>SUM(C53:M53)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="56" t="s">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>4</v>
       </c>
       <c r="B54" s="57">
         <f t="shared" si="1"/>
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="58">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="43"/>
       <c r="N54" s="50">
-        <f>SUM(C54:M54)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="57">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E55" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F55" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G55" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H55" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="50">
+        <f>SUM(C55:M55)</f>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="57">
+        <f t="shared" si="1"/>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="O54" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="58">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="50">
+        <f>SUM(C56:M56)</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="O56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="62">
-        <f t="shared" ref="B55:M55" si="5">SUM(B2:B54)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="C55" s="63">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="62">
+        <f t="shared" ref="B57:M57" si="5">SUM(B2:B56)</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="C57" s="63">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D57" s="63">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E57" s="63">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F57" s="63">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G57" s="63">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H55" s="63">
+      <c r="H57" s="63">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="I57" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I55" s="63">
+      <c r="J57" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J55" s="63">
+      <c r="K57" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K55" s="63">
+      <c r="L57" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L55" s="63">
+      <c r="M57" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M55" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="64"/>
-      <c r="O55" s="65">
-        <f>SUM(N57-N56)</f>
+      <c r="N57" s="64"/>
+      <c r="O57" s="65">
+        <f>SUM(N59-N58)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="N58" s="52">
+        <f>SUM(N3:N57)</f>
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="N56" s="52">
-        <f>SUM(N3:N55)</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N57" s="25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N59" s="25">
         <v>3.6666666666666665</v>
       </c>
     </row>

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G41"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B32" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="7"/>
@@ -4525,14 +4525,16 @@
       <c r="H32" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="43"/>
       <c r="N32" s="50">
         <f t="shared" si="3"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -4541,7 +4543,7 @@
       </c>
       <c r="B33" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="7"/>
@@ -4549,14 +4551,16 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="43"/>
       <c r="N33" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -4565,7 +4569,7 @@
       </c>
       <c r="B34" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="7"/>
@@ -4573,14 +4577,16 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="43"/>
       <c r="N34" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -4589,7 +4595,7 @@
       </c>
       <c r="B35" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="7"/>
@@ -4597,14 +4603,16 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="43"/>
       <c r="N35" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -4755,7 +4763,7 @@
       </c>
       <c r="B42" s="57">
         <f t="shared" si="1"/>
-        <v>2.7777777777777776E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4765,14 +4773,16 @@
       <c r="H42" s="20">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="46"/>
       <c r="N42" s="50">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -4791,7 +4801,6 @@
       <c r="H43" s="20">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
@@ -4857,7 +4866,7 @@
       </c>
       <c r="B46" s="57">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4867,14 +4876,16 @@
       <c r="H46" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I46" s="12"/>
+      <c r="I46" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J46" s="12"/>
       <c r="K46" s="87"/>
       <c r="L46" s="12"/>
       <c r="M46" s="46"/>
       <c r="N46" s="50">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -5008,7 +5019,7 @@
       </c>
       <c r="B52" s="57">
         <f t="shared" si="1"/>
-        <v>9.7222222222222238E-2</v>
+        <v>0.11111111111111113</v>
       </c>
       <c r="C52" s="17">
         <v>2.0833333333333332E-2</v>
@@ -5028,14 +5039,16 @@
       <c r="H52" s="19">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="50">
         <f t="shared" si="4"/>
-        <v>9.7222222222222238E-2</v>
+        <v>0.11111111111111113</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -5096,7 +5109,7 @@
       </c>
       <c r="B55" s="57">
         <f t="shared" si="1"/>
-        <v>0.20833333333333331</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="19">
@@ -5114,14 +5127,16 @@
       <c r="H55" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I55" s="3"/>
+      <c r="I55" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="50">
         <f>SUM(C55:M55)</f>
-        <v>0.20833333333333331</v>
+        <v>0.24999999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5130,7 +5145,7 @@
       </c>
       <c r="B56" s="57">
         <f t="shared" si="1"/>
-        <v>3.4722222222222224E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
@@ -5140,14 +5155,16 @@
       </c>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
+      <c r="I56" s="17">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="J56" s="43"/>
       <c r="K56" s="43"/>
       <c r="L56" s="43"/>
       <c r="M56" s="43"/>
       <c r="N56" s="50">
         <f>SUM(C56:M56)</f>
-        <v>3.4722222222222224E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O56" t="s">
         <v>49</v>
@@ -5157,7 +5174,7 @@
       <c r="A57" s="10"/>
       <c r="B57" s="62">
         <f t="shared" ref="B57:M57" si="5">SUM(B2:B56)</f>
-        <v>1.9999999999999998</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C57" s="63">
         <f t="shared" si="5"/>
@@ -5185,7 +5202,7 @@
       </c>
       <c r="I57" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="J57" s="63">
         <f t="shared" si="5"/>
@@ -5206,7 +5223,7 @@
       <c r="N57" s="64"/>
       <c r="O57" s="65">
         <f>SUM(N59-N58)</f>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5231,7 +5248,7 @@
       </c>
       <c r="N58" s="52">
         <f>SUM(N3:N57)</f>
-        <v>1.9999999999999998</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -5241,5 +5258,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Previsionnel" sheetId="1" r:id="rId1"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Previsionnel" sheetId="1" r:id="rId1"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B36" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="7"/>
@@ -4630,13 +4630,15 @@
       <c r="G36" s="4"/>
       <c r="H36" s="7"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="43"/>
       <c r="N36" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -4645,7 +4647,7 @@
       </c>
       <c r="B37" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="7"/>
@@ -4654,13 +4656,15 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="43"/>
       <c r="N37" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -4669,7 +4673,7 @@
       </c>
       <c r="B38" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="7"/>
@@ -4678,13 +4682,15 @@
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="43"/>
       <c r="N38" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -4842,12 +4848,14 @@
       </c>
       <c r="B45" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="12"/>
@@ -4857,7 +4865,7 @@
       <c r="M45" s="46"/>
       <c r="N45" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -4866,7 +4874,7 @@
       </c>
       <c r="B46" s="57">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4879,13 +4887,17 @@
       <c r="I46" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="87"/>
+      <c r="J46" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K46" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L46" s="12"/>
       <c r="M46" s="46"/>
       <c r="N46" s="50">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -5019,7 +5031,7 @@
       </c>
       <c r="B52" s="57">
         <f t="shared" si="1"/>
-        <v>0.11111111111111113</v>
+        <v>0.13888888888888892</v>
       </c>
       <c r="C52" s="17">
         <v>2.0833333333333332E-2</v>
@@ -5042,13 +5054,17 @@
       <c r="I52" s="17">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="J52" s="19">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="K52" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="50">
         <f t="shared" si="4"/>
-        <v>0.11111111111111113</v>
+        <v>0.13888888888888892</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -5057,7 +5073,7 @@
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C53" s="17">
         <v>4.1666666666666664E-2</v>
@@ -5071,12 +5087,14 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="17">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="42"/>
       <c r="N53" s="50">
         <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -5109,7 +5127,7 @@
       </c>
       <c r="B55" s="57">
         <f t="shared" si="1"/>
-        <v>0.24999999999999997</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="19">
@@ -5130,13 +5148,17 @@
       <c r="I55" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="J55" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K55" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="50">
         <f>SUM(C55:M55)</f>
-        <v>0.24999999999999997</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5145,13 +5167,13 @@
       </c>
       <c r="B56" s="57">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="58">
-        <v>3.4722222222222224E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
@@ -5159,12 +5181,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
+      <c r="K56" s="17">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="L56" s="43"/>
       <c r="M56" s="43"/>
       <c r="N56" s="50">
         <f>SUM(C56:M56)</f>
-        <v>6.25E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="O56" t="s">
         <v>49</v>
@@ -5174,7 +5198,7 @@
       <c r="A57" s="10"/>
       <c r="B57" s="62">
         <f t="shared" ref="B57:M57" si="5">SUM(B2:B56)</f>
-        <v>2.333333333333333</v>
+        <v>2.9305555555555558</v>
       </c>
       <c r="C57" s="63">
         <f t="shared" si="5"/>
@@ -5190,7 +5214,7 @@
       </c>
       <c r="F57" s="63">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G57" s="63">
         <f t="shared" si="5"/>
@@ -5206,11 +5230,11 @@
       </c>
       <c r="J57" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="K57" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L57" s="63">
         <f t="shared" si="5"/>
@@ -5223,7 +5247,7 @@
       <c r="N57" s="64"/>
       <c r="O57" s="65">
         <f>SUM(N59-N58)</f>
-        <v>1.3333333333333335</v>
+        <v>0.73611111111111072</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,7 +5272,7 @@
       </c>
       <c r="N58" s="52">
         <f>SUM(N3:N57)</f>
-        <v>2.333333333333333</v>
+        <v>2.9305555555555558</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">

--- a/Documentation/PLannification_TPI.xlsx
+++ b/Documentation/PLannification_TPI.xlsx
@@ -244,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFBE4D5"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -556,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -669,7 +684,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -698,7 +712,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,21 +1087,21 @@
         <v>1</v>
       </c>
       <c r="T1" s="71"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="76"/>
       <c r="AJ1" s="71"/>
       <c r="AK1" s="71"/>
     </row>
@@ -1074,7 +1123,7 @@
       <c r="M2" s="44"/>
       <c r="N2" s="49"/>
       <c r="T2" s="71"/>
-      <c r="U2" s="78"/>
+      <c r="U2" s="77"/>
       <c r="V2" s="45"/>
       <c r="W2" s="43"/>
       <c r="X2" s="43"/>
@@ -1088,7 +1137,7 @@
       <c r="AF2" s="45"/>
       <c r="AG2" s="45"/>
       <c r="AH2" s="45"/>
-      <c r="AI2" s="77"/>
+      <c r="AI2" s="76"/>
       <c r="AJ2" s="71"/>
       <c r="AK2" s="71"/>
     </row>
@@ -1127,7 +1176,7 @@
       <c r="S3" s="32"/>
       <c r="T3" s="71"/>
       <c r="U3" s="54"/>
-      <c r="V3" s="79"/>
+      <c r="V3" s="78"/>
       <c r="W3" s="42"/>
       <c r="X3" s="43"/>
       <c r="Y3" s="45"/>
@@ -1139,12 +1188,12 @@
       <c r="AE3" s="45"/>
       <c r="AF3" s="45"/>
       <c r="AG3" s="45"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1181,7 +1230,7 @@
       <c r="S4" s="35"/>
       <c r="T4" s="71"/>
       <c r="U4" s="54"/>
-      <c r="V4" s="79"/>
+      <c r="V4" s="78"/>
       <c r="W4" s="42"/>
       <c r="X4" s="45"/>
       <c r="Y4" s="45"/>
@@ -1193,12 +1242,12 @@
       <c r="AE4" s="45"/>
       <c r="AF4" s="45"/>
       <c r="AG4" s="45"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
     </row>
     <row r="5" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -1235,7 +1284,7 @@
       <c r="S5" s="38"/>
       <c r="T5" s="71"/>
       <c r="U5" s="54"/>
-      <c r="V5" s="79"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="42"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="45"/>
@@ -1247,12 +1296,12 @@
       <c r="AE5" s="45"/>
       <c r="AF5" s="45"/>
       <c r="AG5" s="45"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -1281,7 +1330,7 @@
       </c>
       <c r="T6" s="71"/>
       <c r="U6" s="54"/>
-      <c r="V6" s="79"/>
+      <c r="V6" s="78"/>
       <c r="W6" s="42"/>
       <c r="X6" s="45"/>
       <c r="Y6" s="45"/>
@@ -1293,12 +1342,12 @@
       <c r="AE6" s="45"/>
       <c r="AF6" s="45"/>
       <c r="AG6" s="45"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1327,7 +1376,7 @@
       </c>
       <c r="T7" s="71"/>
       <c r="U7" s="54"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="78"/>
       <c r="W7" s="43"/>
       <c r="X7" s="45"/>
       <c r="Y7" s="45"/>
@@ -1339,12 +1388,12 @@
       <c r="AE7" s="45"/>
       <c r="AF7" s="45"/>
       <c r="AG7" s="45"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
     </row>
     <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -1364,7 +1413,7 @@
       <c r="M8" s="40"/>
       <c r="N8" s="49"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="41"/>
       <c r="W8" s="41"/>
       <c r="X8" s="41"/>
@@ -1378,11 +1427,11 @@
       <c r="AF8" s="41"/>
       <c r="AG8" s="41"/>
       <c r="AH8" s="45"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1411,7 +1460,7 @@
       </c>
       <c r="T9" s="71"/>
       <c r="U9" s="54"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="41"/>
       <c r="X9" s="45"/>
       <c r="Y9" s="42"/>
@@ -1423,12 +1472,12 @@
       <c r="AE9" s="41"/>
       <c r="AF9" s="41"/>
       <c r="AG9" s="41"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1457,7 +1506,7 @@
       </c>
       <c r="T10" s="71"/>
       <c r="U10" s="54"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="41"/>
       <c r="X10" s="45"/>
       <c r="Y10" s="42"/>
@@ -1469,8 +1518,8 @@
       <c r="AE10" s="41"/>
       <c r="AF10" s="41"/>
       <c r="AG10" s="41"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="77"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="76"/>
       <c r="AJ10" s="71"/>
       <c r="AK10" s="71"/>
     </row>
@@ -1501,7 +1550,7 @@
       </c>
       <c r="T11" s="71"/>
       <c r="U11" s="54"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="41"/>
       <c r="X11" s="45"/>
       <c r="Y11" s="42"/>
@@ -1513,8 +1562,8 @@
       <c r="AE11" s="41"/>
       <c r="AF11" s="41"/>
       <c r="AG11" s="41"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="77"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="76"/>
       <c r="AJ11" s="71"/>
       <c r="AK11" s="71"/>
     </row>
@@ -1545,7 +1594,7 @@
       </c>
       <c r="T12" s="71"/>
       <c r="U12" s="54"/>
-      <c r="V12" s="79"/>
+      <c r="V12" s="78"/>
       <c r="W12" s="41"/>
       <c r="X12" s="45"/>
       <c r="Y12" s="42"/>
@@ -1557,8 +1606,8 @@
       <c r="AE12" s="41"/>
       <c r="AF12" s="41"/>
       <c r="AG12" s="41"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="77"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="76"/>
       <c r="AJ12" s="71"/>
       <c r="AK12" s="71"/>
     </row>
@@ -1589,7 +1638,7 @@
       </c>
       <c r="T13" s="71"/>
       <c r="U13" s="54"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="41"/>
       <c r="X13" s="45"/>
       <c r="Y13" s="42"/>
@@ -1601,8 +1650,8 @@
       <c r="AE13" s="41"/>
       <c r="AF13" s="41"/>
       <c r="AG13" s="41"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="77"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="76"/>
       <c r="AJ13" s="71"/>
       <c r="AK13" s="71"/>
     </row>
@@ -1633,7 +1682,7 @@
       </c>
       <c r="T14" s="71"/>
       <c r="U14" s="54"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="41"/>
       <c r="X14" s="43"/>
       <c r="Y14" s="41"/>
@@ -1645,8 +1694,8 @@
       <c r="AE14" s="41"/>
       <c r="AF14" s="41"/>
       <c r="AG14" s="41"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="77"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="76"/>
       <c r="AJ14" s="71"/>
       <c r="AK14" s="71"/>
     </row>
@@ -1668,7 +1717,7 @@
       <c r="M15" s="40"/>
       <c r="N15" s="49"/>
       <c r="T15" s="71"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="41"/>
       <c r="W15" s="41"/>
       <c r="X15" s="41"/>
@@ -1682,7 +1731,7 @@
       <c r="AF15" s="41"/>
       <c r="AG15" s="41"/>
       <c r="AH15" s="45"/>
-      <c r="AI15" s="77"/>
+      <c r="AI15" s="76"/>
       <c r="AJ15" s="71"/>
       <c r="AK15" s="71"/>
     </row>
@@ -1713,7 +1762,7 @@
       </c>
       <c r="T16" s="71"/>
       <c r="U16" s="54"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="78"/>
       <c r="W16" s="41"/>
       <c r="X16" s="41"/>
       <c r="Y16" s="41"/>
@@ -1725,8 +1774,8 @@
       <c r="AE16" s="41"/>
       <c r="AF16" s="41"/>
       <c r="AG16" s="41"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="77"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="76"/>
       <c r="AJ16" s="71"/>
       <c r="AK16" s="71"/>
     </row>
@@ -1757,7 +1806,7 @@
       </c>
       <c r="T17" s="71"/>
       <c r="U17" s="54"/>
-      <c r="V17" s="79"/>
+      <c r="V17" s="78"/>
       <c r="W17" s="41"/>
       <c r="X17" s="41"/>
       <c r="Y17" s="41"/>
@@ -1769,8 +1818,8 @@
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
       <c r="AG17" s="42"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="77"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="76"/>
       <c r="AJ17" s="71"/>
       <c r="AK17" s="71"/>
     </row>
@@ -1801,7 +1850,7 @@
       </c>
       <c r="T18" s="71"/>
       <c r="U18" s="54"/>
-      <c r="V18" s="79"/>
+      <c r="V18" s="78"/>
       <c r="W18" s="41"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
@@ -1813,8 +1862,8 @@
       <c r="AE18" s="43"/>
       <c r="AF18" s="43"/>
       <c r="AG18" s="43"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="77"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="76"/>
       <c r="AJ18" s="71"/>
       <c r="AK18" s="71"/>
     </row>
@@ -1845,7 +1894,7 @@
       </c>
       <c r="T19" s="71"/>
       <c r="U19" s="54"/>
-      <c r="V19" s="79"/>
+      <c r="V19" s="78"/>
       <c r="W19" s="41"/>
       <c r="X19" s="41"/>
       <c r="Y19" s="41"/>
@@ -1857,8 +1906,8 @@
       <c r="AE19" s="43"/>
       <c r="AF19" s="43"/>
       <c r="AG19" s="43"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="77"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="76"/>
       <c r="AJ19" s="71"/>
       <c r="AK19" s="71"/>
     </row>
@@ -1889,7 +1938,7 @@
       </c>
       <c r="T20" s="71"/>
       <c r="U20" s="54"/>
-      <c r="V20" s="79"/>
+      <c r="V20" s="78"/>
       <c r="W20" s="41"/>
       <c r="X20" s="41"/>
       <c r="Y20" s="41"/>
@@ -1901,8 +1950,8 @@
       <c r="AE20" s="43"/>
       <c r="AF20" s="43"/>
       <c r="AG20" s="43"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="77"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="76"/>
       <c r="AJ20" s="71"/>
       <c r="AK20" s="71"/>
     </row>
@@ -1933,7 +1982,7 @@
       </c>
       <c r="T21" s="71"/>
       <c r="U21" s="54"/>
-      <c r="V21" s="79"/>
+      <c r="V21" s="78"/>
       <c r="W21" s="41"/>
       <c r="X21" s="41"/>
       <c r="Y21" s="41"/>
@@ -1945,8 +1994,8 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="43"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="77"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="76"/>
       <c r="AJ21" s="71"/>
       <c r="AK21" s="71"/>
     </row>
@@ -1968,7 +2017,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="49"/>
       <c r="T22" s="71"/>
-      <c r="U22" s="78"/>
+      <c r="U22" s="77"/>
       <c r="V22" s="41"/>
       <c r="W22" s="41"/>
       <c r="X22" s="41"/>
@@ -1982,7 +2031,7 @@
       <c r="AF22" s="41"/>
       <c r="AG22" s="41"/>
       <c r="AH22" s="45"/>
-      <c r="AI22" s="77"/>
+      <c r="AI22" s="76"/>
       <c r="AJ22" s="71"/>
       <c r="AK22" s="71"/>
     </row>
@@ -2013,7 +2062,7 @@
       </c>
       <c r="T23" s="71"/>
       <c r="U23" s="54"/>
-      <c r="V23" s="79"/>
+      <c r="V23" s="78"/>
       <c r="W23" s="41"/>
       <c r="X23" s="41"/>
       <c r="Y23" s="41"/>
@@ -2025,8 +2074,8 @@
       <c r="AE23" s="43"/>
       <c r="AF23" s="43"/>
       <c r="AG23" s="43"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="77"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="76"/>
       <c r="AJ23" s="71"/>
       <c r="AK23" s="71"/>
     </row>
@@ -2059,7 +2108,7 @@
       </c>
       <c r="T24" s="71"/>
       <c r="U24" s="54"/>
-      <c r="V24" s="79"/>
+      <c r="V24" s="78"/>
       <c r="W24" s="41"/>
       <c r="X24" s="41"/>
       <c r="Y24" s="41"/>
@@ -2071,8 +2120,8 @@
       <c r="AE24" s="43"/>
       <c r="AF24" s="43"/>
       <c r="AG24" s="43"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="77"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="76"/>
       <c r="AJ24" s="71"/>
       <c r="AK24" s="71"/>
     </row>
@@ -2103,7 +2152,7 @@
       </c>
       <c r="T25" s="71"/>
       <c r="U25" s="54"/>
-      <c r="V25" s="79"/>
+      <c r="V25" s="78"/>
       <c r="W25" s="41"/>
       <c r="X25" s="41"/>
       <c r="Y25" s="41"/>
@@ -2115,8 +2164,8 @@
       <c r="AE25" s="43"/>
       <c r="AF25" s="43"/>
       <c r="AG25" s="43"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="77"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="76"/>
       <c r="AJ25" s="71"/>
       <c r="AK25" s="71"/>
     </row>
@@ -2149,7 +2198,7 @@
       </c>
       <c r="T26" s="71"/>
       <c r="U26" s="54"/>
-      <c r="V26" s="79"/>
+      <c r="V26" s="78"/>
       <c r="W26" s="41"/>
       <c r="X26" s="41"/>
       <c r="Y26" s="41"/>
@@ -2161,8 +2210,8 @@
       <c r="AE26" s="43"/>
       <c r="AF26" s="43"/>
       <c r="AG26" s="43"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="77"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="76"/>
       <c r="AJ26" s="71"/>
       <c r="AK26" s="71"/>
     </row>
@@ -2195,7 +2244,7 @@
       </c>
       <c r="T27" s="71"/>
       <c r="U27" s="54"/>
-      <c r="V27" s="79"/>
+      <c r="V27" s="78"/>
       <c r="W27" s="41"/>
       <c r="X27" s="41"/>
       <c r="Y27" s="43"/>
@@ -2207,8 +2256,8 @@
       <c r="AE27" s="43"/>
       <c r="AF27" s="43"/>
       <c r="AG27" s="43"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="77"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="76"/>
       <c r="AJ27" s="71"/>
       <c r="AK27" s="71"/>
     </row>
@@ -2239,7 +2288,7 @@
       </c>
       <c r="T28" s="71"/>
       <c r="U28" s="54"/>
-      <c r="V28" s="79"/>
+      <c r="V28" s="78"/>
       <c r="W28" s="41"/>
       <c r="X28" s="41"/>
       <c r="Y28" s="43"/>
@@ -2251,8 +2300,8 @@
       <c r="AE28" s="43"/>
       <c r="AF28" s="43"/>
       <c r="AG28" s="43"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="77"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="76"/>
       <c r="AJ28" s="71"/>
       <c r="AK28" s="71"/>
     </row>
@@ -2283,7 +2332,7 @@
       </c>
       <c r="T29" s="71"/>
       <c r="U29" s="54"/>
-      <c r="V29" s="79"/>
+      <c r="V29" s="78"/>
       <c r="W29" s="41"/>
       <c r="X29" s="41"/>
       <c r="Y29" s="43"/>
@@ -2295,8 +2344,8 @@
       <c r="AE29" s="43"/>
       <c r="AF29" s="43"/>
       <c r="AG29" s="43"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="77"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="76"/>
       <c r="AJ29" s="71"/>
       <c r="AK29" s="71"/>
     </row>
@@ -2327,7 +2376,7 @@
       </c>
       <c r="T30" s="71"/>
       <c r="U30" s="54"/>
-      <c r="V30" s="79"/>
+      <c r="V30" s="78"/>
       <c r="W30" s="41"/>
       <c r="X30" s="41"/>
       <c r="Y30" s="43"/>
@@ -2339,8 +2388,8 @@
       <c r="AE30" s="43"/>
       <c r="AF30" s="43"/>
       <c r="AG30" s="43"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="77"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="76"/>
       <c r="AJ30" s="71"/>
       <c r="AK30" s="71"/>
     </row>
@@ -2371,7 +2420,7 @@
       </c>
       <c r="T31" s="71"/>
       <c r="U31" s="54"/>
-      <c r="V31" s="79"/>
+      <c r="V31" s="78"/>
       <c r="W31" s="41"/>
       <c r="X31" s="41"/>
       <c r="Y31" s="43"/>
@@ -2383,8 +2432,8 @@
       <c r="AE31" s="43"/>
       <c r="AF31" s="43"/>
       <c r="AG31" s="43"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="77"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="76"/>
       <c r="AJ31" s="71"/>
       <c r="AK31" s="71"/>
     </row>
@@ -2415,7 +2464,7 @@
       </c>
       <c r="T32" s="71"/>
       <c r="U32" s="54"/>
-      <c r="V32" s="79"/>
+      <c r="V32" s="78"/>
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
       <c r="Y32" s="43"/>
@@ -2427,8 +2476,8 @@
       <c r="AE32" s="43"/>
       <c r="AF32" s="43"/>
       <c r="AG32" s="43"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="77"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="76"/>
       <c r="AJ32" s="71"/>
       <c r="AK32" s="71"/>
     </row>
@@ -2459,7 +2508,7 @@
       </c>
       <c r="T33" s="71"/>
       <c r="U33" s="54"/>
-      <c r="V33" s="79"/>
+      <c r="V33" s="78"/>
       <c r="W33" s="41"/>
       <c r="X33" s="41"/>
       <c r="Y33" s="43"/>
@@ -2471,8 +2520,8 @@
       <c r="AE33" s="43"/>
       <c r="AF33" s="43"/>
       <c r="AG33" s="43"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="77"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="76"/>
       <c r="AJ33" s="71"/>
       <c r="AK33" s="71"/>
     </row>
@@ -2503,7 +2552,7 @@
       </c>
       <c r="T34" s="71"/>
       <c r="U34" s="54"/>
-      <c r="V34" s="79"/>
+      <c r="V34" s="78"/>
       <c r="W34" s="41"/>
       <c r="X34" s="41"/>
       <c r="Y34" s="43"/>
@@ -2515,8 +2564,8 @@
       <c r="AE34" s="43"/>
       <c r="AF34" s="43"/>
       <c r="AG34" s="43"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="77"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="76"/>
       <c r="AJ34" s="71"/>
       <c r="AK34" s="71"/>
     </row>
@@ -2547,7 +2596,7 @@
       </c>
       <c r="T35" s="71"/>
       <c r="U35" s="54"/>
-      <c r="V35" s="79"/>
+      <c r="V35" s="78"/>
       <c r="W35" s="41"/>
       <c r="X35" s="41"/>
       <c r="Y35" s="43"/>
@@ -2559,8 +2608,8 @@
       <c r="AE35" s="43"/>
       <c r="AF35" s="43"/>
       <c r="AG35" s="43"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="77"/>
+      <c r="AH35" s="78"/>
+      <c r="AI35" s="76"/>
       <c r="AJ35" s="71"/>
       <c r="AK35" s="71"/>
     </row>
@@ -2591,7 +2640,7 @@
       </c>
       <c r="T36" s="71"/>
       <c r="U36" s="54"/>
-      <c r="V36" s="79"/>
+      <c r="V36" s="78"/>
       <c r="W36" s="41"/>
       <c r="X36" s="41"/>
       <c r="Y36" s="43"/>
@@ -2603,8 +2652,8 @@
       <c r="AE36" s="43"/>
       <c r="AF36" s="43"/>
       <c r="AG36" s="43"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="77"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="76"/>
       <c r="AJ36" s="71"/>
       <c r="AK36" s="71"/>
     </row>
@@ -2626,12 +2675,12 @@
       <c r="M37" s="44"/>
       <c r="N37" s="49"/>
       <c r="T37" s="71"/>
-      <c r="U37" s="78"/>
+      <c r="U37" s="77"/>
       <c r="V37" s="41"/>
       <c r="W37" s="41"/>
       <c r="X37" s="43"/>
       <c r="Y37" s="45"/>
-      <c r="Z37" s="80"/>
+      <c r="Z37" s="79"/>
       <c r="AA37" s="45"/>
       <c r="AB37" s="41"/>
       <c r="AC37" s="45"/>
@@ -2640,7 +2689,7 @@
       <c r="AF37" s="45"/>
       <c r="AG37" s="45"/>
       <c r="AH37" s="45"/>
-      <c r="AI37" s="77"/>
+      <c r="AI37" s="76"/>
       <c r="AJ37" s="71"/>
       <c r="AK37" s="71"/>
     </row>
@@ -2671,7 +2720,7 @@
       </c>
       <c r="T38" s="71"/>
       <c r="U38" s="54"/>
-      <c r="V38" s="79"/>
+      <c r="V38" s="78"/>
       <c r="W38" s="41"/>
       <c r="X38" s="41"/>
       <c r="Y38" s="41"/>
@@ -2683,8 +2732,8 @@
       <c r="AE38" s="41"/>
       <c r="AF38" s="41"/>
       <c r="AG38" s="45"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="77"/>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="76"/>
       <c r="AJ38" s="71"/>
       <c r="AK38" s="71"/>
     </row>
@@ -2716,7 +2765,7 @@
       </c>
       <c r="T39" s="71"/>
       <c r="U39" s="54"/>
-      <c r="V39" s="79"/>
+      <c r="V39" s="78"/>
       <c r="W39" s="41"/>
       <c r="X39" s="41"/>
       <c r="Y39" s="41"/>
@@ -2728,8 +2777,8 @@
       <c r="AE39" s="41"/>
       <c r="AF39" s="41"/>
       <c r="AG39" s="45"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="77"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="76"/>
       <c r="AJ39" s="71"/>
       <c r="AK39" s="71"/>
     </row>
@@ -2762,7 +2811,7 @@
       </c>
       <c r="T40" s="71"/>
       <c r="U40" s="54"/>
-      <c r="V40" s="79"/>
+      <c r="V40" s="78"/>
       <c r="W40" s="43"/>
       <c r="X40" s="41"/>
       <c r="Y40" s="41"/>
@@ -2774,8 +2823,8 @@
       <c r="AE40" s="41"/>
       <c r="AF40" s="41"/>
       <c r="AG40" s="46"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="77"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="76"/>
       <c r="AJ40" s="71"/>
       <c r="AK40" s="71"/>
     </row>
@@ -2806,7 +2855,7 @@
       </c>
       <c r="T41" s="71"/>
       <c r="U41" s="54"/>
-      <c r="V41" s="79"/>
+      <c r="V41" s="78"/>
       <c r="W41" s="43"/>
       <c r="X41" s="41"/>
       <c r="Y41" s="41"/>
@@ -2818,8 +2867,8 @@
       <c r="AE41" s="41"/>
       <c r="AF41" s="41"/>
       <c r="AG41" s="46"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="77"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="76"/>
       <c r="AJ41" s="71"/>
       <c r="AK41" s="71"/>
     </row>
@@ -2850,7 +2899,7 @@
       </c>
       <c r="T42" s="71"/>
       <c r="U42" s="54"/>
-      <c r="V42" s="79"/>
+      <c r="V42" s="78"/>
       <c r="W42" s="43"/>
       <c r="X42" s="41"/>
       <c r="Y42" s="41"/>
@@ -2862,8 +2911,8 @@
       <c r="AE42" s="41"/>
       <c r="AF42" s="41"/>
       <c r="AG42" s="46"/>
-      <c r="AH42" s="79"/>
-      <c r="AI42" s="77"/>
+      <c r="AH42" s="78"/>
+      <c r="AI42" s="76"/>
       <c r="AJ42" s="71"/>
       <c r="AK42" s="71"/>
     </row>
@@ -2894,7 +2943,7 @@
       </c>
       <c r="T43" s="71"/>
       <c r="U43" s="54"/>
-      <c r="V43" s="79"/>
+      <c r="V43" s="78"/>
       <c r="W43" s="43"/>
       <c r="X43" s="41"/>
       <c r="Y43" s="41"/>
@@ -2906,8 +2955,8 @@
       <c r="AE43" s="41"/>
       <c r="AF43" s="41"/>
       <c r="AG43" s="46"/>
-      <c r="AH43" s="79"/>
-      <c r="AI43" s="77"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="76"/>
       <c r="AJ43" s="71"/>
       <c r="AK43" s="71"/>
     </row>
@@ -2938,7 +2987,7 @@
       </c>
       <c r="T44" s="71"/>
       <c r="U44" s="54"/>
-      <c r="V44" s="79"/>
+      <c r="V44" s="78"/>
       <c r="W44" s="43"/>
       <c r="X44" s="41"/>
       <c r="Y44" s="41"/>
@@ -2950,8 +2999,8 @@
       <c r="AE44" s="41"/>
       <c r="AF44" s="41"/>
       <c r="AG44" s="46"/>
-      <c r="AH44" s="79"/>
-      <c r="AI44" s="77"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="76"/>
       <c r="AJ44" s="71"/>
       <c r="AK44" s="71"/>
     </row>
@@ -2974,7 +3023,7 @@
       <c r="N45" s="49"/>
       <c r="Q45" s="25"/>
       <c r="T45" s="71"/>
-      <c r="U45" s="81"/>
+      <c r="U45" s="80"/>
       <c r="V45" s="41"/>
       <c r="W45" s="43"/>
       <c r="X45" s="43"/>
@@ -2988,9 +3037,9 @@
       <c r="AF45" s="45"/>
       <c r="AG45" s="45"/>
       <c r="AH45" s="45"/>
-      <c r="AI45" s="77"/>
+      <c r="AI45" s="76"/>
       <c r="AJ45" s="71"/>
-      <c r="AK45" s="82"/>
+      <c r="AK45" s="81"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
@@ -3019,7 +3068,7 @@
       </c>
       <c r="T46" s="71"/>
       <c r="U46" s="54"/>
-      <c r="V46" s="79"/>
+      <c r="V46" s="78"/>
       <c r="W46" s="42"/>
       <c r="X46" s="41"/>
       <c r="Y46" s="41"/>
@@ -3031,8 +3080,8 @@
       <c r="AE46" s="41"/>
       <c r="AF46" s="41"/>
       <c r="AG46" s="41"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="77"/>
+      <c r="AH46" s="78"/>
+      <c r="AI46" s="76"/>
       <c r="AJ46" s="71"/>
       <c r="AK46" s="71"/>
     </row>
@@ -3063,7 +3112,7 @@
       </c>
       <c r="T47" s="71"/>
       <c r="U47" s="54"/>
-      <c r="V47" s="79"/>
+      <c r="V47" s="78"/>
       <c r="W47" s="42"/>
       <c r="X47" s="41"/>
       <c r="Y47" s="41"/>
@@ -3075,8 +3124,8 @@
       <c r="AE47" s="41"/>
       <c r="AF47" s="41"/>
       <c r="AG47" s="41"/>
-      <c r="AH47" s="79"/>
-      <c r="AI47" s="77"/>
+      <c r="AH47" s="78"/>
+      <c r="AI47" s="76"/>
       <c r="AJ47" s="71"/>
       <c r="AK47" s="71"/>
     </row>
@@ -3109,7 +3158,7 @@
       </c>
       <c r="T48" s="71"/>
       <c r="U48" s="54"/>
-      <c r="V48" s="79"/>
+      <c r="V48" s="78"/>
       <c r="W48" s="42"/>
       <c r="X48" s="41"/>
       <c r="Y48" s="41"/>
@@ -3121,8 +3170,8 @@
       <c r="AE48" s="41"/>
       <c r="AF48" s="41"/>
       <c r="AG48" s="41"/>
-      <c r="AH48" s="79"/>
-      <c r="AI48" s="77"/>
+      <c r="AH48" s="78"/>
+      <c r="AI48" s="76"/>
       <c r="AJ48" s="71"/>
       <c r="AK48" s="71"/>
     </row>
@@ -3153,7 +3202,7 @@
       </c>
       <c r="T49" s="71"/>
       <c r="U49" s="54"/>
-      <c r="V49" s="79"/>
+      <c r="V49" s="78"/>
       <c r="W49" s="42"/>
       <c r="X49" s="41"/>
       <c r="Y49" s="41"/>
@@ -3165,8 +3214,8 @@
       <c r="AE49" s="41"/>
       <c r="AF49" s="41"/>
       <c r="AG49" s="41"/>
-      <c r="AH49" s="79"/>
-      <c r="AI49" s="77"/>
+      <c r="AH49" s="78"/>
+      <c r="AI49" s="76"/>
       <c r="AJ49" s="71"/>
       <c r="AK49" s="71"/>
     </row>
@@ -3217,7 +3266,7 @@
       </c>
       <c r="T50" s="71"/>
       <c r="U50" s="54"/>
-      <c r="V50" s="79"/>
+      <c r="V50" s="78"/>
       <c r="W50" s="42"/>
       <c r="X50" s="41"/>
       <c r="Y50" s="41"/>
@@ -3229,8 +3278,8 @@
       <c r="AE50" s="41"/>
       <c r="AF50" s="41"/>
       <c r="AG50" s="41"/>
-      <c r="AH50" s="79"/>
-      <c r="AI50" s="77"/>
+      <c r="AH50" s="78"/>
+      <c r="AI50" s="76"/>
       <c r="AJ50" s="71"/>
       <c r="AK50" s="71"/>
     </row>
@@ -3266,8 +3315,8 @@
         <v>0.41666666666666663</v>
       </c>
       <c r="T51" s="71"/>
-      <c r="U51" s="83"/>
-      <c r="V51" s="79"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="78"/>
       <c r="W51" s="42"/>
       <c r="X51" s="41"/>
       <c r="Y51" s="41"/>
@@ -3279,8 +3328,8 @@
       <c r="AE51" s="41"/>
       <c r="AF51" s="41"/>
       <c r="AG51" s="41"/>
-      <c r="AH51" s="79"/>
-      <c r="AI51" s="77"/>
+      <c r="AH51" s="78"/>
+      <c r="AI51" s="76"/>
       <c r="AJ51" s="71"/>
       <c r="AK51" s="71"/>
     </row>
@@ -3312,8 +3361,8 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="T52" s="71"/>
-      <c r="U52" s="83"/>
-      <c r="V52" s="79"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="78"/>
       <c r="W52" s="43"/>
       <c r="X52" s="41"/>
       <c r="Y52" s="41"/>
@@ -3325,8 +3374,8 @@
       <c r="AE52" s="41"/>
       <c r="AF52" s="41"/>
       <c r="AG52" s="41"/>
-      <c r="AH52" s="79"/>
-      <c r="AI52" s="77"/>
+      <c r="AH52" s="78"/>
+      <c r="AI52" s="76"/>
       <c r="AJ52" s="71"/>
       <c r="AK52" s="71"/>
     </row>
@@ -3374,8 +3423,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="T53" s="71"/>
-      <c r="U53" s="83"/>
-      <c r="V53" s="79"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="78"/>
       <c r="W53" s="42"/>
       <c r="X53" s="41"/>
       <c r="Y53" s="41"/>
@@ -3387,8 +3436,8 @@
       <c r="AE53" s="41"/>
       <c r="AF53" s="41"/>
       <c r="AG53" s="41"/>
-      <c r="AH53" s="79"/>
-      <c r="AI53" s="77"/>
+      <c r="AH53" s="78"/>
+      <c r="AI53" s="76"/>
       <c r="AJ53" s="71"/>
       <c r="AK53" s="71"/>
     </row>
@@ -3431,8 +3480,8 @@
         <v>49</v>
       </c>
       <c r="T54" s="71"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="79"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="78"/>
       <c r="W54" s="43"/>
       <c r="X54" s="41"/>
       <c r="Y54" s="41"/>
@@ -3444,8 +3493,8 @@
       <c r="AE54" s="41"/>
       <c r="AF54" s="41"/>
       <c r="AG54" s="41"/>
-      <c r="AH54" s="79"/>
-      <c r="AI54" s="77"/>
+      <c r="AH54" s="78"/>
+      <c r="AI54" s="76"/>
       <c r="AJ54" s="71"/>
       <c r="AK54" s="71"/>
     </row>
@@ -3505,20 +3554,20 @@
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="U55" s="41"/>
-      <c r="V55" s="79"/>
-      <c r="W55" s="79"/>
-      <c r="X55" s="79"/>
-      <c r="Y55" s="79"/>
-      <c r="Z55" s="79"/>
-      <c r="AA55" s="79"/>
-      <c r="AB55" s="79"/>
-      <c r="AC55" s="79"/>
-      <c r="AD55" s="79"/>
-      <c r="AE55" s="79"/>
-      <c r="AF55" s="79"/>
-      <c r="AG55" s="79"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="78"/>
+      <c r="AA55" s="78"/>
+      <c r="AB55" s="78"/>
+      <c r="AC55" s="78"/>
+      <c r="AD55" s="78"/>
+      <c r="AE55" s="78"/>
+      <c r="AF55" s="78"/>
+      <c r="AG55" s="78"/>
       <c r="AH55" s="41"/>
-      <c r="AI55" s="79"/>
+      <c r="AI55" s="78"/>
       <c r="AJ55" s="71"/>
       <c r="AK55" s="71"/>
     </row>
@@ -3549,18 +3598,18 @@
       <c r="U56" s="41"/>
       <c r="V56" s="41"/>
       <c r="W56" s="41"/>
-      <c r="X56" s="84"/>
+      <c r="X56" s="83"/>
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
       <c r="AA56" s="41"/>
       <c r="AB56" s="41"/>
       <c r="AC56" s="41"/>
-      <c r="AD56" s="85"/>
-      <c r="AE56" s="85"/>
-      <c r="AF56" s="85"/>
-      <c r="AG56" s="85"/>
-      <c r="AH56" s="79"/>
-      <c r="AI56" s="77"/>
+      <c r="AD56" s="84"/>
+      <c r="AE56" s="84"/>
+      <c r="AF56" s="84"/>
+      <c r="AG56" s="84"/>
+      <c r="AH56" s="78"/>
+      <c r="AI56" s="76"/>
       <c r="AJ56" s="71"/>
       <c r="AK56" s="71"/>
     </row>
@@ -3568,97 +3617,97 @@
       <c r="N57" s="25">
         <v>3.6666666666666665</v>
       </c>
-      <c r="U57" s="77"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
-      <c r="X57" s="77"/>
-      <c r="Y57" s="77"/>
-      <c r="Z57" s="77"/>
-      <c r="AA57" s="77"/>
-      <c r="AB57" s="77"/>
-      <c r="AC57" s="77"/>
-      <c r="AD57" s="77"/>
-      <c r="AE57" s="77"/>
-      <c r="AF57" s="77"/>
-      <c r="AG57" s="77"/>
-      <c r="AH57" s="82"/>
-      <c r="AI57" s="77"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="76"/>
+      <c r="AH57" s="81"/>
+      <c r="AI57" s="76"/>
       <c r="AJ57" s="71"/>
       <c r="AK57" s="71"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="U58" s="77"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="77"/>
-      <c r="Y58" s="77"/>
-      <c r="Z58" s="77"/>
-      <c r="AA58" s="77"/>
-      <c r="AB58" s="77"/>
-      <c r="AC58" s="77"/>
-      <c r="AD58" s="77"/>
-      <c r="AE58" s="77"/>
-      <c r="AF58" s="77"/>
-      <c r="AG58" s="77"/>
-      <c r="AH58" s="77"/>
-      <c r="AI58" s="77"/>
+      <c r="U58" s="76"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="76"/>
+      <c r="AB58" s="76"/>
+      <c r="AC58" s="76"/>
+      <c r="AD58" s="76"/>
+      <c r="AE58" s="76"/>
+      <c r="AF58" s="76"/>
+      <c r="AG58" s="76"/>
+      <c r="AH58" s="76"/>
+      <c r="AI58" s="76"/>
       <c r="AJ58" s="71"/>
       <c r="AK58" s="71"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="U59" s="77"/>
-      <c r="V59" s="77"/>
-      <c r="W59" s="77"/>
-      <c r="X59" s="77"/>
-      <c r="Y59" s="77"/>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="77"/>
-      <c r="AB59" s="77"/>
-      <c r="AC59" s="77"/>
-      <c r="AD59" s="77"/>
-      <c r="AE59" s="77"/>
-      <c r="AF59" s="77"/>
-      <c r="AG59" s="77"/>
-      <c r="AH59" s="77"/>
-      <c r="AI59" s="77"/>
+      <c r="U59" s="76"/>
+      <c r="V59" s="76"/>
+      <c r="W59" s="76"/>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="76"/>
+      <c r="AB59" s="76"/>
+      <c r="AC59" s="76"/>
+      <c r="AD59" s="76"/>
+      <c r="AE59" s="76"/>
+      <c r="AF59" s="76"/>
+      <c r="AG59" s="76"/>
+      <c r="AH59" s="76"/>
+      <c r="AI59" s="76"/>
       <c r="AJ59" s="71"/>
       <c r="AK59" s="71"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="U60" s="77"/>
-      <c r="V60" s="77"/>
-      <c r="W60" s="77"/>
-      <c r="X60" s="77"/>
-      <c r="Y60" s="77"/>
-      <c r="Z60" s="77"/>
-      <c r="AA60" s="77"/>
-      <c r="AB60" s="77"/>
-      <c r="AC60" s="77"/>
-      <c r="AD60" s="77"/>
-      <c r="AE60" s="77"/>
-      <c r="AF60" s="77"/>
-      <c r="AG60" s="77"/>
-      <c r="AH60" s="77"/>
-      <c r="AI60" s="77"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
       <c r="AJ60" s="71"/>
       <c r="AK60" s="71"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="U61" s="77"/>
-      <c r="V61" s="77"/>
-      <c r="W61" s="77"/>
-      <c r="X61" s="77"/>
-      <c r="Y61" s="77"/>
-      <c r="Z61" s="77"/>
-      <c r="AA61" s="77"/>
-      <c r="AB61" s="77"/>
-      <c r="AC61" s="77"/>
-      <c r="AD61" s="77"/>
-      <c r="AE61" s="77"/>
-      <c r="AF61" s="77"/>
-      <c r="AG61" s="77"/>
-      <c r="AH61" s="77"/>
-      <c r="AI61" s="77"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="76"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="76"/>
+      <c r="AG61" s="76"/>
+      <c r="AH61" s="76"/>
+      <c r="AI61" s="76"/>
       <c r="AJ61" s="71"/>
       <c r="AK61" s="71"/>
     </row>
@@ -3672,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,6 +3730,7 @@
     <col min="1" max="1" width="108" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="48.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -3753,19 +3803,19 @@
         <f>SUM(C3:M3)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C3" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="50">
         <f t="shared" ref="N3:N46" si="0">SUM(C3:M3)</f>
         <v>2.0833333333333332E-2</v>
@@ -3787,19 +3837,19 @@
         <f t="shared" ref="B4:B56" si="1">SUM(C4:M4)</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="19">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="45"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="50">
         <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
@@ -3821,19 +3871,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="45"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -3855,19 +3905,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="45"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -3881,19 +3931,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -3904,17 +3954,17 @@
         <v>59</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="40"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
       <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3925,19 +3975,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="41"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -3951,19 +4001,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="41"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -3977,19 +4027,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="41"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4003,19 +4053,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="41"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4029,19 +4079,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="41"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="91">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="50">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
@@ -4055,19 +4105,19 @@
         <f t="shared" si="1"/>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="19">
+      <c r="C14" s="92"/>
+      <c r="D14" s="91">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="41"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="50">
         <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
@@ -4078,17 +4128,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="51"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="40"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -4099,19 +4149,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4125,19 +4175,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
       <c r="N17" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4151,19 +4201,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
       <c r="N18" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4177,19 +4227,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
       <c r="N19" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4203,19 +4253,19 @@
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="17">
+      <c r="C20" s="95"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="86">
         <v>6.25E-2</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
       <c r="N20" s="50">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
@@ -4229,19 +4279,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
       <c r="N21" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4252,17 +4302,17 @@
         <v>30</v>
       </c>
       <c r="B22" s="51"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="40"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="94"/>
       <c r="N22" s="49"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4273,19 +4323,19 @@
         <f t="shared" ref="B23" si="2">SUM(C23:M23)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="43"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="96"/>
       <c r="N23" s="50">
         <f t="shared" ref="N23:N38" si="3">SUM(C23:M23)</f>
         <v>2.0833333333333332E-2</v>
@@ -4299,21 +4349,21 @@
         <f t="shared" si="1"/>
         <v>0.12499999999999999</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="21">
+      <c r="C24" s="95"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="98">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="91">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="43"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="96"/>
       <c r="N24" s="50">
         <f t="shared" si="3"/>
         <v>0.12499999999999999</v>
@@ -4327,21 +4377,21 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F25" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="43"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F25" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="96"/>
       <c r="N25" s="50">
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
@@ -4355,19 +4405,19 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="19">
+      <c r="C26" s="95"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="91">
         <v>0.125</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="43"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="96"/>
       <c r="N26" s="50">
         <f t="shared" si="3"/>
         <v>0.125</v>
@@ -4381,19 +4431,19 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="21">
+      <c r="C27" s="95"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="98">
         <v>0.125</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="43"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="96"/>
       <c r="N27" s="50">
         <f t="shared" si="3"/>
         <v>0.125</v>
@@ -4407,19 +4457,19 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="21">
+      <c r="C28" s="95"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="98">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="43"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="96"/>
       <c r="N28" s="50">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
@@ -4433,19 +4483,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="43"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="96"/>
       <c r="N29" s="50">
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
@@ -4459,19 +4509,19 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="20">
+      <c r="C30" s="95"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="99">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="43"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="96"/>
       <c r="N30" s="50">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
@@ -4488,19 +4538,19 @@
         <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="20">
+      <c r="C31" s="95"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="99">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="43"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="96"/>
       <c r="N31" s="50">
         <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
@@ -4517,21 +4567,21 @@
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I32" s="21">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="43"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I32" s="98">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="96"/>
       <c r="N32" s="50">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
@@ -4545,19 +4595,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="43"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="98">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="96"/>
       <c r="N33" s="50">
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
@@ -4571,19 +4621,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="43"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="98">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="96"/>
       <c r="N34" s="50">
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
@@ -4597,19 +4647,19 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="21">
+      <c r="C35" s="95"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="98">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="43"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="96"/>
       <c r="N35" s="50">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
@@ -4623,19 +4673,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="43"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="96"/>
       <c r="N36" s="50">
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
@@ -4649,19 +4699,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="43"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="96"/>
       <c r="N37" s="50">
         <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
@@ -4675,19 +4725,19 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="20">
+      <c r="C38" s="95"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="99">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="43"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="96"/>
       <c r="N38" s="50">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
@@ -4698,17 +4748,17 @@
         <v>11</v>
       </c>
       <c r="B39" s="51"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="44"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="103"/>
       <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -4719,19 +4769,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="45"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="89"/>
       <c r="N40" s="50">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -4745,19 +4795,19 @@
         <f t="shared" si="1"/>
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="21">
+      <c r="C41" s="92"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="98">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="45"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
       <c r="N41" s="50">
         <f t="shared" si="0"/>
         <v>6.9444444444444434E-2</v>
@@ -4769,26 +4819,28 @@
       </c>
       <c r="B42" s="57">
         <f t="shared" si="1"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="20">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="99">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I42" s="21">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="46"/>
+      <c r="I42" s="98">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J42" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="50">
         <f t="shared" si="0"/>
-        <v>6.9444444444444448E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -4799,18 +4851,19 @@
         <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="20">
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="99">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="46"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="106"/>
       <c r="N43" s="50">
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
@@ -4824,19 +4877,19 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="46"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G44" s="88"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="50">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
@@ -4848,24 +4901,26 @@
       </c>
       <c r="B45" s="57">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="46"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G45" s="88"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="108">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="50">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -4876,25 +4931,25 @@
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I46" s="21">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J46" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K46" s="21">
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I46" s="98">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J46" s="99">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K46" s="98">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="46"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="106"/>
       <c r="N46" s="50">
         <f t="shared" si="0"/>
         <v>0.1875</v>
@@ -4905,17 +4960,17 @@
         <v>2</v>
       </c>
       <c r="B47" s="51"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="44"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="103"/>
       <c r="N47" s="49"/>
       <c r="Q47" s="25"/>
     </row>
@@ -4927,19 +4982,19 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="86">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="45"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="89"/>
       <c r="N48" s="50">
         <f t="shared" ref="N48:N54" si="4">SUM(C48:M48)</f>
         <v>0.16666666666666666</v>
@@ -4953,19 +5008,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C49" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="45"/>
+      <c r="C49" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D49" s="109"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="89"/>
       <c r="N49" s="50">
         <f t="shared" si="4"/>
         <v>2.0833333333333332E-2</v>
@@ -4979,21 +5034,21 @@
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C50" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D50" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="45"/>
+      <c r="C50" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D50" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="89"/>
       <c r="N50" s="50">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
@@ -5007,19 +5062,19 @@
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C51" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="45"/>
+      <c r="C51" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D51" s="109"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="89"/>
       <c r="N51" s="50">
         <f t="shared" si="4"/>
         <v>2.0833333333333332E-2</v>
@@ -5031,40 +5086,44 @@
       </c>
       <c r="B52" s="57">
         <f t="shared" si="1"/>
-        <v>0.13888888888888892</v>
-      </c>
-      <c r="C52" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D52" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E52" s="17">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="C52" s="86">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D52" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E52" s="86">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="91">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="86">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="91">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="86">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="91">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="86">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="L52" s="91">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M52" s="86">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="N52" s="50">
         <f t="shared" si="4"/>
-        <v>0.13888888888888892</v>
+        <v>0.16666666666666671</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -5073,28 +5132,32 @@
       </c>
       <c r="B53" s="57">
         <f t="shared" si="1"/>
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C53" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D53" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="17">
+        <v>0.5625</v>
+      </c>
+      <c r="C53" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D53" s="91">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="86">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="42"/>
+      <c r="L53" s="91">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M53" s="86">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="N53" s="50">
         <f t="shared" si="4"/>
-        <v>0.22916666666666666</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -5103,22 +5166,26 @@
       </c>
       <c r="B54" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="43"/>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="99">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M54" s="110">
+        <v>0.1111111111111111</v>
+      </c>
       <c r="N54" s="50">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.19444444444444442</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -5127,38 +5194,42 @@
       </c>
       <c r="B55" s="57">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E55" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F55" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G55" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H55" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I55" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J55" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K55" s="17">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C55" s="90"/>
+      <c r="D55" s="91">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E55" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F55" s="91">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G55" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H55" s="91">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I55" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J55" s="91">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K55" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L55" s="91">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M55" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N55" s="50">
         <f>SUM(C55:M55)</f>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5167,28 +5238,30 @@
       </c>
       <c r="B56" s="57">
         <f t="shared" si="1"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="58">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="111">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="17">
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="86">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="17">
+      <c r="J56" s="96"/>
+      <c r="K56" s="86">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
+      <c r="L56" s="111">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="M56" s="96"/>
       <c r="N56" s="50">
         <f>SUM(C56:M56)</f>
-        <v>6.9444444444444448E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="O56" t="s">
         <v>49</v>
@@ -5198,7 +5271,7 @@
       <c r="A57" s="10"/>
       <c r="B57" s="62">
         <f t="shared" ref="B57:M57" si="5">SUM(B2:B56)</f>
-        <v>2.9305555555555558</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="C57" s="63">
         <f t="shared" si="5"/>
@@ -5230,7 +5303,7 @@
       </c>
       <c r="J57" s="63">
         <f t="shared" si="5"/>
-        <v>0.2638888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="K57" s="63">
         <f t="shared" si="5"/>
@@ -5238,16 +5311,16 @@
       </c>
       <c r="L57" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="M57" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N57" s="64"/>
       <c r="O57" s="65">
         <f>SUM(N59-N58)</f>
-        <v>0.73611111111111072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5272,7 +5345,7 @@
       </c>
       <c r="N58" s="52">
         <f>SUM(N3:N57)</f>
-        <v>2.9305555555555558</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
